--- a/xlsx/航天飞机_intext.xlsx
+++ b/xlsx/航天飞机_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="590">
   <si>
     <t>航天飞机</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E9%AB%98%E5%82%B3%E7%9C%9F%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>太空梭高傳真科技</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_航天飞机</t>
+    <t>太空梭高传真科技</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_航天飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>美國太空梭計劃</t>
+    <t>美国太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%AA%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>暴風雪太空梭計畫</t>
+    <t>暴风雪太空梭计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E5%B1%A4</t>
   </si>
   <si>
-    <t>大氣層</t>
+    <t>大气层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%96%80%E7%B7%9A</t>
   </si>
   <si>
-    <t>卡門線</t>
+    <t>卡门线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD%E5%8B%95%E5%8A%9B%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>火箭動力飛機</t>
+    <t>火箭动力飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>飛機</t>
+    <t>飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8</t>
@@ -83,19 +83,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%A3%9B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空飛機</t>
+    <t>太空飞机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
   </si>
   <si>
-    <t>蘇聯</t>
+    <t>苏联</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E5%9C%B0%E8%BD%A8%E9%81%93</t>
@@ -137,13 +137,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E6%9C%BA</t>
   </si>
   <si>
-    <t>飞机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%96%A9%E5%85%8B%E6%96%AF%E5%9D%A6</t>
   </si>
   <si>
-    <t>哈薩克斯坦</t>
+    <t>哈萨克斯坦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E7%89%B9%E5%85%B0%E8%92%82%E6%96%AF%E5%8F%B7</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%91%E7%BF%94%E6%A9%9F</t>
   </si>
   <si>
-    <t>滑翔機</t>
+    <t>滑翔机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%91%E6%88%B0%E8%80%85%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>挑戰者號太空梭</t>
+    <t>挑战者号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%91%E6%88%98%E8%80%85%E5%8F%B7%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA%E7%81%BE%E9%9A%BE</t>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%AE%E9%80%B2%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>奮進號太空梭</t>
+    <t>奋进号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E8%B7%AF%E8%80%85%E5%8F%B7%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA</t>
@@ -215,19 +212,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>衛星</t>
+    <t>卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%AA%E8%99%9F</t>
   </si>
   <si>
-    <t>暴風雪號</t>
+    <t>暴风雪号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B3%A5%E8%99%9F</t>
   </si>
   <si>
-    <t>小鳥號</t>
+    <t>小鸟号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E5%AE%87%E5%AE%99%E9%80%9F%E5%BA%A6</t>
@@ -245,37 +242,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%B9%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>太空船一號</t>
+    <t>太空船一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%9F%B3%E9%80%9F%E7%87%83%E7%87%92%E8%A1%9D%E5%A3%93%E5%99%B4%E5%B0%84%E5%BC%95%E6%93%8E</t>
   </si>
   <si>
-    <t>超音速燃燒衝壓噴射引擎</t>
+    <t>超音速燃烧冲压喷射引擎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>哥倫比亞號太空梭</t>
+    <t>哥伦比亚号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%BC%89%E9%81%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>太空梭載運機</t>
+    <t>太空梭载运机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%89%B9%E8%98%AD%E6%8F%90%E6%96%AF%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>亞特蘭提斯號太空梭</t>
+    <t>亚特兰提斯号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E6%A5%AD%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>企業號太空梭</t>
+    <t>企业号太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E5%9E%8B</t>
@@ -287,7 +284,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國國家航空暨太空總署</t>
+    <t>美国国家航空暨太空总署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E9%A3%9E%E8%88%B9</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>人造衛星</t>
+    <t>人造卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%AE%AD</t>
@@ -311,7 +308,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E6%88%B6%E5%BA%A7%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>獵戶座太空船</t>
+    <t>猎户座太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
@@ -323,13 +320,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>國際太空站</t>
+    <t>国际太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E4%BB%BB%E5%8B%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空梭任務列表</t>
+    <t>太空梭任务列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%90%84%E5%9B%BD%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA</t>
@@ -341,9 +338,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/List_of_Space_Shuttle_orbiters</t>
   </si>
   <si>
@@ -353,19 +347,16 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
   </si>
   <si>
-    <t>苏联</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%AA%E5%A4%AA%E7%A9%BA%E7%A9%BF%E6%A2%AD%E6%A9%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>暴風雪太空穿梭機計劃</t>
+    <t>暴风雪太空穿梭机计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>發現號太空梭</t>
+    <t>发现号太空梭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/OK-GLI</t>
@@ -377,31 +368,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9A%B4%E9%A2%A8%E9%9B%AA%E8%99%9F%E7%A9%BF%E6%A2%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>暴風雪號穿梭機</t>
+    <t>暴风雪号穿梭机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%B3%A5%E8%99%9F%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>小鳥號太空梭</t>
+    <t>小鸟号太空梭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2.01%E8%99%9F%E7%A9%BF%E6%A2%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>en-2.01號穿梭機</t>
+    <t>en-2.01号穿梭机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2.02%E8%99%9F%E7%A9%BF%E6%A2%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>en-2.02號穿梭機</t>
+    <t>en-2.02号穿梭机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/2.03%E8%99%9F%E7%A9%BF%E6%A2%AD%E6%A9%9F</t>
   </si>
   <si>
-    <t>en-2.03號穿梭機</t>
+    <t>en-2.03号穿梭机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -461,7 +452,7 @@
     <t>https://zh.wikipedia.org/wiki/X-20%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>X-20試驗機</t>
+    <t>X-20试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%8F%B7%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -479,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B7%B99%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>獵鷹9號運載火箭</t>
+    <t>猎鹰9号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3X-37</t>
@@ -497,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B7%B91%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>獵鷹1號運載火箭</t>
+    <t>猎鹰1号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA%EF%BC%88%E6%9A%B4%E9%A3%8E%E9%9B%AA%EF%BC%89</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%A5%9E%E4%B8%80%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>戰神一號運載火箭</t>
+    <t>战神一号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%A5%9E%E4%BA%94%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>戰神五號運載火箭</t>
+    <t>战神五号运载火箭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E9%A3%9E%E6%9C%BA-C</t>
@@ -533,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%B92%E5%8F%B7</t>
@@ -545,7 +536,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%87%A1%E9%81%94%E5%A4%AA%E7%A9%BA%E6%A2%AD</t>
   </si>
   <si>
-    <t>阿凡達太空梭</t>
+    <t>阿凡达太空梭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
@@ -563,13 +554,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%B91%E8%99%9F</t>
   </si>
   <si>
-    <t>太空船1號</t>
+    <t>太空船1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%BD%E6%BA%90%E5%8F%B7%E8%BF%90%E8%BD%BD%E7%81%AB%E7%AE%AD</t>
@@ -581,7 +572,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%B7%B95%E8%99%9F%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD</t>
   </si>
   <si>
-    <t>獵鷹5號運載火箭</t>
+    <t>猎鹰5号运载火箭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/K-1_(rocket)</t>
@@ -605,7 +596,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93</t>
   </si>
   <si>
-    <t>亞軌道</t>
+    <t>亚轨道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9</t>
@@ -635,7 +626,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>亞洲太空競賽</t>
+    <t>亚洲太空竞赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E7%BA%AA%E5%BD%95%E5%88%97%E8%A1%A8</t>
@@ -677,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%88%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E9%96%8B%E7%99%BC%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>宇宙航空研究開發機構</t>
+    <t>宇宙航空研究开发机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E8%81%94%E9%82%A6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -761,7 +752,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%80%83%E5%8F%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>考古學</t>
+    <t>考古学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E5%BD%B1%E5%83%8F</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>太空天氣</t>
+    <t>太空天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%BD%E4%BA%BA%E8%88%AA%E5%A4%A9</t>
@@ -923,7 +914,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E8%88%AA%E8%A1%8C%E5%B0%8D%E4%BA%BA%E9%AB%94%E7%9A%84%E5%BD%B1%E9%9F%BF</t>
   </si>
   <si>
-    <t>太空航行對人體的影響</t>
+    <t>太空航行对人体的影响</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Space_adaptation_syndrome</t>
@@ -965,31 +956,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E8%88%9F%E9%A3%9B%E8%88%B9</t>
   </si>
   <si>
-    <t>神舟飛船</t>
+    <t>神舟飞船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%AA%E7%A9%BA%E7%AB%99</t>
   </si>
   <si>
-    <t>中國太空站</t>
+    <t>中国太空站</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>東方計劃</t>
+    <t>东方计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>禮炮計劃</t>
+    <t>礼炮计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E5%8D%87%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>上升計劃</t>
+    <t>上升计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%9B%9F%E8%AE%A1%E5%88%92</t>
@@ -1001,13 +992,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>太空梭計劃</t>
+    <t>太空梭计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BF%E6%A2%AD%E6%A9%9F-%E5%92%8C%E5%B9%B3%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>穿梭機-和平號計劃</t>
+    <t>穿梭机-和平号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8F%B7%E7%A9%BA%E9%97%B4%E7%AB%99</t>
@@ -1025,15 +1016,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA%E5%A4%AA%E7%A9%BA%E8%88%B9</t>
   </si>
   <si>
-    <t>機器人太空船</t>
+    <t>机器人太空船</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%80%A0%E5%8D%AB%E6%98%9F</t>
   </si>
   <si>
-    <t>人造卫星</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E9%97%B4%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
   </si>
   <si>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A2%E6%B8%AC%E8%BB%8A</t>
   </si>
   <si>
-    <t>探測車</t>
+    <t>探测车</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Self-replicating_spacecraft</t>
@@ -1133,13 +1121,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99</t>
   </si>
   <si>
-    <t>目標</t>
+    <t>目标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>亞軌道太空飛行</t>
+    <t>亚轨道太空飞行</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Orbital_spaceflight</t>
@@ -1163,13 +1151,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%98%9F%E9%9A%9B%E8%88%AA%E8%A1%8C</t>
   </si>
   <si>
-    <t>行星際航行</t>
+    <t>行星际航行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%81%86%E6%98%9F%E9%9A%9B%E6%97%85%E8%A1%8C</t>
   </si>
   <si>
-    <t>恆星際旅行</t>
+    <t>恒星际旅行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%9F%E7%B3%BB%E9%99%85%E6%97%85%E8%A1%8C</t>
@@ -1205,7 +1193,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%AE%87%E5%AE%99%E7%A0%94%E7%A9%B6%E9%99%A2</t>
   </si>
   <si>
-    <t>韓國航空宇宙研究院</t>
+    <t>韩国航空宇宙研究院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
@@ -1217,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%AA%E5%A4%A9%E7%A7%91%E6%8A%80%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>中國航天科技集團</t>
+    <t>中国航天科技集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%88%AA%E5%A4%A9%E7%A7%91%E5%B7%A5%E9%9B%86%E5%9B%A2</t>
@@ -1229,19 +1217,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%BC%89%E4%BA%BA%E8%88%AA%E5%A4%A9%E5%B7%A5%E7%A8%8B%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
-    <t>中國載人航天工程辦公室</t>
+    <t>中国载人航天工程办公室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國家太空中心 (中華民國)</t>
+    <t>国家太空中心 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E5%9C%8B%E5%AE%B6%E5%AE%87%E5%AE%99%E9%96%8B%E7%99%BC%E5%B1%80</t>
   </si>
   <si>
-    <t>朝鮮國家宇宙開發局</t>
+    <t>朝鲜国家宇宙开发局</t>
   </si>
   <si>
     <t>https://id.wikipedia.org/wiki/Lembaga_Penerbangan_dan_Antariksa_Nasional</t>
@@ -1277,19 +1265,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>法國國家太空研究中心</t>
+    <t>法国国家太空研究中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E8%88%AA%E7%A9%BA%E5%A4%AA%E7%A9%BA%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
-    <t>德國航空太空中心</t>
+    <t>德国航空太空中心</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9%E5%A4%AA%E7%A9%BA%E7%B8%BD%E7%BD%B2</t>
   </si>
   <si>
-    <t>義大利太空總署</t>
+    <t>义大利太空总署</t>
   </si>
   <si>
     <t>https://sv.wikipedia.org/wiki/Rymdstyrelsen</t>
@@ -1301,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%88%AA%E5%A4%AA</t>
   </si>
   <si>
-    <t>俄羅斯航太</t>
+    <t>俄罗斯航太</t>
   </si>
   <si>
     <t>https://uk.wikipedia.org/wiki/%D0%94%D0%B5%D1%80%D0%B6%D0%B0%D0%B2%D0%BD%D0%B5_%D0%BA%D0%BE%D1%81%D0%BC%D1%96%D1%87%D0%BD%D0%B5_%D0%B0%D0%B3%D0%B5%D0%BD%D1%82%D1%81%D1%82%D0%B2%D0%BE_%D0%A3%D0%BA%D1%80%D0%B0%D1%97%D0%BD%D0%B8</t>
@@ -1343,19 +1331,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E5%A4%AA%E7%A9%BA%E7%A0%94%E7%A9%B6%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>印度太空研究組織</t>
+    <t>印度太空研究组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E8%AB%AE%E8%A9%A2%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>美國國家航空諮詢委員會</t>
+    <t>美国国家航空谘询委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E6%9A%A8%E5%A4%AA%E7%A9%BA%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國家航空暨太空法案</t>
+    <t>美国国家航空暨太空法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E6%9D%B0%E6%96%AF%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -1367,9 +1355,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%AB%B6%E8%B3%BD</t>
   </si>
   <si>
-    <t>太空競賽</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
@@ -1379,7 +1364,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E5%99%A8%E8%A3%9D%E9%85%8D%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>航天器裝配大樓</t>
+    <t>航天器装配大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E8%BF%AA%E8%88%AA%E5%A4%A9%E4%B8%AD%E5%BF%8339%E5%8F%B7%E5%8F%91%E5%B0%84%E5%A4%8D%E5%90%88%E4%BD%93</t>
@@ -1397,31 +1382,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E6%89%8B%E8%99%9F%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>水手號計劃</t>
+    <t>水手号计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E8%BB%8C%E9%81%93%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>月球軌道計畫</t>
+    <t>月球轨道计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%8B%92%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>先鋒計劃</t>
+    <t>先锋计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E9%A8%8E%E5%85%B5%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>游騎兵計畫</t>
+    <t>游骑兵计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%AC%E9%87%8F%E5%93%A1%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>測量員計畫</t>
+    <t>测量员计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E7%9B%97%E5%8F%B7</t>
@@ -1439,13 +1424,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E5%81%B5%E5%AF%9F%E5%85%B5%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>火星偵察兵計劃</t>
+    <t>火星侦察兵计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%87%E6%81%86%E6%98%9F%E5%85%B1%E5%AD%98</t>
   </si>
   <si>
-    <t>與恆星共存</t>
+    <t>与恒星共存</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E8%BD%A8%E9%81%93%E5%A4%A9%E6%96%87%E5%8F%B0%E8%AE%A1%E5%88%92</t>
@@ -1463,19 +1448,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B6%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>航海家計畫</t>
+    <t>航海家计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E7%8F%BE%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>發現計劃</t>
+    <t>发现计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%96%86%E7%95%8C%E8%A8%88%E7%95%AB</t>
   </si>
   <si>
-    <t>新疆界計畫</t>
+    <t>新疆界计画</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F%E6%8E%A2%E6%B5%8B%E6%BC%AB%E6%B8%B8%E8%80%85</t>
@@ -1487,7 +1472,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A1%E8%BB%8C%E9%81%93%E5%A4%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C</t>
   </si>
   <si>
-    <t>次軌道太空飛行</t>
+    <t>次轨道太空飞行</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%A2%AD%EF%BC%8D%E5%92%8C%E5%B9%B3%E5%8F%B7%E8%AE%A1%E5%88%92</t>
@@ -1511,7 +1496,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E5%AE%99%E8%83%8C%E6%99%AF%E6%8E%A2%E6%B8%AC%E8%80%85</t>
   </si>
   <si>
-    <t>宇宙背景探測者</t>
+    <t>宇宙背景探测者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BD%9711%E5%8F%B7</t>
@@ -1535,7 +1520,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%93%B2%E5%80%AB%E8%99%9F%E9%87%91%E6%98%9F%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>麥哲倫號金星探測器</t>
+    <t>麦哲伦号金星探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%88%E9%A9%B1%E8%80%8510%E5%8F%B7</t>
@@ -1565,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%8D%E5%8A%9B%E5%9B%9E%E6%BA%AF%E5%8F%8A%E5%85%A7%E9%83%A8%E7%B5%90%E6%A7%8B%E5%AF%A6%E9%A9%97%E5%AE%A4</t>
   </si>
   <si>
-    <t>重力回溯及內部結構實驗室</t>
+    <t>重力回溯及内部结构实验室</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%B0%94%E9%87%91%E6%A3%AE%E5%BE%AE%E6%B3%A2%E5%90%84%E5%90%91%E5%BC%82%E6%80%A7%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1577,7 +1562,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E7%90%83%E5%A4%A7%E6%B0%A3%E8%88%87%E7%B2%89%E5%A1%B5%E7%92%B0%E5%A2%83%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>月球大氣與粉塵環境探測器</t>
+    <t>月球大气与粉尘环境探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E4%BD%BF%E5%8F%B7</t>
@@ -1595,13 +1580,13 @@
     <t>https://zh.wikipedia.org/wiki/2001%E7%81%AB%E6%98%9F%E5%A5%A7%E5%BE%B7%E8%B3%BD%E8%99%9F</t>
   </si>
   <si>
-    <t>2001火星奧德賽號</t>
+    <t>2001火星奥德赛号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%99%E5%85%89%E8%99%9F</t>
   </si>
   <si>
-    <t>曙光號</t>
+    <t>曙光号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A7%86%E9%87%8E%E5%8F%B7</t>
@@ -1613,7 +1598,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E5%8D%9C%E5%8B%92%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>克卜勒太空望遠鏡</t>
+    <t>克卜勒太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%8B%83%E7%A9%BA%E9%97%B4%E6%9C%9B%E8%BF%9C%E9%95%9C</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%8C%B9%E5%93%B2%E5%A4%AA%E7%A9%BA%E6%9C%9B%E9%81%A0%E9%8F%A1</t>
   </si>
   <si>
-    <t>史匹哲太空望遠鏡</t>
+    <t>史匹哲太空望远镜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E9%A9%AC%E7%AC%AC%E9%AB%98%E8%83%BD%E5%A4%AA%E9%98%B3%E5%85%89%E8%B0%B1%E6%88%90%E5%83%8F%E6%8E%A2%E6%B5%8B%E5%99%A8</t>
@@ -1643,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%BD%E5%A5%87%E8%99%9F</t>
   </si>
   <si>
-    <t>好奇號</t>
+    <t>好奇号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%81%87%E5%8F%B7</t>
@@ -1667,13 +1652,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%89%BE%E5%80%AB%E6%8E%A2%E6%B8%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>范艾倫探測器</t>
+    <t>范艾伦探测器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E5%8B%95%E5%8A%9B%E5%AD%B8%E5%A4%A9%E6%96%87%E5%8F%B0</t>
   </si>
   <si>
-    <t>太陽動力學天文台</t>
+    <t>太阳动力学天文台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E8%AF%BA%E5%8F%B7</t>
@@ -1697,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E6%B5%B7%E5%AE%B61%E8%99%9F</t>
   </si>
   <si>
-    <t>航海家1號</t>
+    <t>航海家1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%85%E8%A1%8C%E8%80%852%E5%8F%B7</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B4%85%E5%A4%96%E7%B7%9A%E5%B7%A1%E5%A4%A9%E6%8E%A2%E6%B8%AC%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>廣域紅外線巡天探測衛星</t>
+    <t>广域红外线巡天探测卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MAVEN</t>
@@ -1727,7 +1712,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9E%E5%AF%9F%E8%99%9F</t>
   </si>
   <si>
-    <t>洞察號</t>
+    <t>洞察号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/OSIRIS-REx</t>
@@ -1739,7 +1724,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E6%98%9F2020%E6%8E%A2%E6%B8%AC%E8%BB%8A%E4%BB%BB%E5%8B%99</t>
   </si>
   <si>
-    <t>火星2020探測車任務</t>
+    <t>火星2020探测车任务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E7%A9%BA%E7%BD%91%E7%BB%9C</t>
@@ -1769,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1787,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1799,7 +1784,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2706,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>35</v>
@@ -2747,10 +2732,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2776,10 +2761,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -2805,10 +2790,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2834,10 +2819,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2863,10 +2848,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -2892,10 +2877,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -2921,10 +2906,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -2950,10 +2935,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2979,10 +2964,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -3008,10 +2993,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -3037,10 +3022,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3066,10 +3051,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3095,10 +3080,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -3124,10 +3109,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -3153,10 +3138,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3182,10 +3167,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -3211,10 +3196,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -3240,10 +3225,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -3269,10 +3254,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3298,10 +3283,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -3327,10 +3312,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3356,10 +3341,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -3385,10 +3370,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" t="s">
         <v>67</v>
-      </c>
-      <c r="F43" t="s">
-        <v>68</v>
       </c>
       <c r="G43" t="n">
         <v>4</v>
@@ -3414,10 +3399,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3443,10 +3428,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3472,10 +3457,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" t="s">
         <v>89</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -3501,10 +3486,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" t="s">
         <v>91</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3530,10 +3515,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3559,10 +3544,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>8</v>
@@ -3588,10 +3573,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3617,10 +3602,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>6</v>
@@ -3646,10 +3631,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -3675,10 +3660,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3704,10 +3689,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>7</v>
@@ -3733,10 +3718,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="G55" t="n">
         <v>10</v>
@@ -3791,10 +3776,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3820,10 +3805,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F58" t="s">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="G58" t="n">
         <v>7</v>
@@ -3849,10 +3834,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3878,10 +3863,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>60</v>
+      </c>
+      <c r="F60" t="s">
         <v>61</v>
-      </c>
-      <c r="F60" t="s">
-        <v>62</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3907,10 +3892,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" t="s">
         <v>49</v>
-      </c>
-      <c r="F61" t="s">
-        <v>50</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3936,10 +3921,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" t="s">
         <v>51</v>
-      </c>
-      <c r="F62" t="s">
-        <v>52</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3965,10 +3950,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>84</v>
+      </c>
+      <c r="F63" t="s">
         <v>85</v>
-      </c>
-      <c r="F63" t="s">
-        <v>86</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3994,10 +3979,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F64" t="s">
         <v>79</v>
-      </c>
-      <c r="F64" t="s">
-        <v>80</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -4023,10 +4008,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" t="s">
         <v>55</v>
-      </c>
-      <c r="F65" t="s">
-        <v>56</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4052,10 +4037,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4081,10 +4066,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" t="s">
         <v>83</v>
-      </c>
-      <c r="F67" t="s">
-        <v>84</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4110,10 +4095,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -4139,10 +4124,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F69" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4168,10 +4153,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4197,10 +4182,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F71" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -4226,10 +4211,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4255,10 +4240,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F73" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -4284,10 +4269,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F74" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G74" t="n">
         <v>4</v>
@@ -4313,10 +4298,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F75" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G75" t="n">
         <v>5</v>
@@ -4342,10 +4327,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F76" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4371,10 +4356,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F77" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G77" t="n">
         <v>10</v>
@@ -4400,10 +4385,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -4429,10 +4414,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F79" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4458,10 +4443,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F80" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -4516,10 +4501,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4545,10 +4530,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F83" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4574,10 +4559,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4603,10 +4588,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G85" t="n">
         <v>2</v>
@@ -4632,10 +4617,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F86" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4661,10 +4646,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4690,10 +4675,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F88" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4719,10 +4704,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F89" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4748,10 +4733,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F90" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4777,10 +4762,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F91" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4806,10 +4791,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F92" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4835,10 +4820,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4864,10 +4849,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F94" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4893,10 +4878,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F95" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4922,10 +4907,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F96" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4951,10 +4936,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F97" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4980,10 +4965,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F98" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5009,10 +4994,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F99" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G99" t="n">
         <v>3</v>
@@ -5038,10 +5023,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5067,10 +5052,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F101" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G101" t="n">
         <v>3</v>
@@ -5096,10 +5081,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F102" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5125,10 +5110,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" t="s">
         <v>73</v>
-      </c>
-      <c r="F103" t="s">
-        <v>74</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5154,10 +5139,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F104" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5183,10 +5168,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F105" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5212,10 +5197,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F106" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5241,10 +5226,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5270,10 +5255,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F108" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5299,10 +5284,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F109" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5328,10 +5313,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F110" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="G110" t="n">
         <v>75</v>
@@ -5357,10 +5342,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5386,10 +5371,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5415,10 +5400,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F113" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -5444,10 +5429,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5473,10 +5458,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F115" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5502,10 +5487,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F116" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5531,10 +5516,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F117" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5560,10 +5545,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F118" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5589,10 +5574,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F119" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5618,10 +5603,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F120" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5647,10 +5632,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F121" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5676,10 +5661,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F122" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5705,10 +5690,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F123" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5734,10 +5719,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F124" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5763,10 +5748,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F125" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5792,10 +5777,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F126" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5821,10 +5806,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F127" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5850,10 +5835,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F128" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5879,10 +5864,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5908,10 +5893,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5937,10 +5922,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5966,10 +5951,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F132" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5995,10 +5980,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6024,10 +6009,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F134" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6053,10 +6038,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6082,10 +6067,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F136" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6111,10 +6096,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F137" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6140,10 +6125,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6169,10 +6154,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6198,10 +6183,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6227,10 +6212,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F141" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6256,10 +6241,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6285,10 +6270,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6314,10 +6299,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6343,10 +6328,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F145" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6372,10 +6357,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F146" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6401,10 +6386,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6430,10 +6415,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6459,10 +6444,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F149" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6488,10 +6473,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6517,10 +6502,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6546,10 +6531,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G152" t="n">
         <v>5</v>
@@ -6575,10 +6560,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -6604,10 +6589,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6633,10 +6618,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6662,10 +6647,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6691,10 +6676,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6720,10 +6705,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F158" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6749,10 +6734,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F159" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6778,10 +6763,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F160" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6807,10 +6792,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F161" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6836,10 +6821,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F162" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6865,10 +6850,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F163" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6894,10 +6879,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F164" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6923,10 +6908,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F165" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6952,10 +6937,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6981,10 +6966,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F167" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7010,10 +6995,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F168" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7039,10 +7024,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F169" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7068,10 +7053,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F170" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7097,10 +7082,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F171" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7126,10 +7111,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7155,10 +7140,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F173" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7184,10 +7169,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F174" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7213,10 +7198,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F175" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -7242,10 +7227,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F176" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7271,10 +7256,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F177" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G177" t="n">
         <v>3</v>
@@ -7300,10 +7285,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F178" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G178" t="n">
         <v>3</v>
@@ -7329,10 +7314,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F179" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G179" t="n">
         <v>2</v>
@@ -7358,10 +7343,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F180" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7387,10 +7372,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F181" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7416,10 +7401,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F182" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7445,10 +7430,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F183" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7503,10 +7488,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F185" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7532,10 +7517,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F186" t="s">
-        <v>338</v>
+        <v>93</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7561,10 +7546,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F187" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7590,10 +7575,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F188" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7619,10 +7604,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F189" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7648,10 +7633,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F190" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7677,10 +7662,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F191" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7706,10 +7691,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F192" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7735,10 +7720,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F193" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7764,10 +7749,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F194" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7793,10 +7778,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F195" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7822,10 +7807,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F196" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7851,10 +7836,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F197" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7880,10 +7865,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F198" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7909,10 +7894,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F199" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7938,10 +7923,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F200" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -7967,10 +7952,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F201" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7996,10 +7981,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F202" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8025,10 +8010,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F203" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8054,10 +8039,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F204" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8083,10 +8068,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F205" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8112,10 +8097,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F206" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8141,10 +8126,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F207" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8170,10 +8155,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F208" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8199,10 +8184,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F209" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8228,10 +8213,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F210" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8257,10 +8242,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F211" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G211" t="n">
         <v>3</v>
@@ -8286,10 +8271,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F212" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8315,10 +8300,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F213" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8344,10 +8329,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F214" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8373,10 +8358,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F215" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8402,10 +8387,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F216" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8431,10 +8416,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F217" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8460,10 +8445,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F218" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8489,10 +8474,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F219" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8518,10 +8503,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F220" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8547,10 +8532,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F221" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8576,10 +8561,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F222" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8605,10 +8590,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F223" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -8634,10 +8619,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F224" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8663,10 +8648,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F225" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8692,10 +8677,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F226" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8721,10 +8706,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F227" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8750,10 +8735,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F228" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8779,10 +8764,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F229" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8808,10 +8793,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F230" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8837,10 +8822,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F231" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8866,10 +8851,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F232" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8895,10 +8880,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F233" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8924,10 +8909,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F234" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8953,10 +8938,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F235" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8982,10 +8967,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9011,10 +8996,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9040,10 +9025,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9069,10 +9054,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F239" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9098,10 +9083,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F240" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G240" t="n">
         <v>6</v>
@@ -9127,10 +9112,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F241" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9156,10 +9141,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F242" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9185,10 +9170,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F243" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9214,10 +9199,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F244" t="s">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9243,10 +9228,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F245" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9272,10 +9257,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F246" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9301,10 +9286,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F247" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9330,10 +9315,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F248" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9359,10 +9344,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F249" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9388,10 +9373,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F250" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9417,10 +9402,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="F251" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9446,10 +9431,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F252" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9475,10 +9460,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F253" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9504,10 +9489,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F254" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9533,10 +9518,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F255" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9562,10 +9547,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F256" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9591,10 +9576,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F257" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9620,10 +9605,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F258" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9649,10 +9634,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="F259" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9678,10 +9663,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F260" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9707,10 +9692,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F261" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9736,10 +9721,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F262" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9765,10 +9750,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9794,10 +9779,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F264" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G264" t="n">
         <v>2</v>
@@ -9823,10 +9808,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F265" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9852,10 +9837,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F266" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9881,10 +9866,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F267" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="G267" t="n">
         <v>3</v>
@@ -9910,10 +9895,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F268" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9939,10 +9924,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="F269" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9968,10 +9953,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F270" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -9997,10 +9982,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F271" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10026,10 +10011,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F272" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10055,10 +10040,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F273" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10084,10 +10069,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F274" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10113,10 +10098,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F275" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G275" t="n">
         <v>12</v>
@@ -10142,10 +10127,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F276" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10171,10 +10156,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F277" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10200,10 +10185,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F278" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10229,10 +10214,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F279" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10258,10 +10243,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F280" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10287,10 +10272,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F281" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10316,10 +10301,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F282" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10345,10 +10330,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F283" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10374,10 +10359,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F284" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10403,10 +10388,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F285" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10432,10 +10417,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10461,10 +10446,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10490,10 +10475,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10519,10 +10504,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10548,10 +10533,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10577,10 +10562,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10606,10 +10591,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10635,10 +10620,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10664,10 +10649,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10693,10 +10678,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10722,10 +10707,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10751,10 +10736,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10780,10 +10765,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10809,10 +10794,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10838,10 +10823,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10867,10 +10852,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10896,10 +10881,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10925,10 +10910,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10954,10 +10939,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10983,10 +10968,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11012,10 +10997,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11041,10 +11026,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11070,10 +11055,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11099,10 +11084,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11128,10 +11113,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11157,10 +11142,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11186,10 +11171,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11215,10 +11200,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11244,10 +11229,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11273,10 +11258,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11302,10 +11287,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11331,10 +11316,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
